--- a/senaiRH/TESTES_SATISFACAO.xlsx
+++ b/senaiRH/TESTES_SATISFACAO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20385"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\33848821800\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TCC\SENAI-RH-MOBILE\senaiRH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F840740-FA53-47C1-BF01-A881007E61E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27AE0F19-2567-47A3-88C3-E42FB6F62486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1872" yWindow="0" windowWidth="22104" windowHeight="9648" xr2:uid="{A654D51F-B724-47B5-B5FB-1A97BB111067}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A654D51F-B724-47B5-B5FB-1A97BB111067}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,20 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>SATISFEITO</t>
   </si>
@@ -62,6 +70,9 @@
   </si>
   <si>
     <t>usuario</t>
+  </si>
+  <si>
+    <t>if 0 = 0,5</t>
   </si>
 </sst>
 </file>
@@ -99,7 +110,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -107,11 +118,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -120,14 +146,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -135,7 +161,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,52 +477,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB6D9B3-9592-487A-B96F-48ADC0262B87}">
-  <dimension ref="C5:Q26"/>
+  <dimension ref="C5:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19.44140625" customWidth="1"/>
-    <col min="4" max="5" width="12.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="1"/>
-    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.21875" customWidth="1"/>
-    <col min="11" max="11" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" customWidth="1"/>
-    <col min="16" max="16" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="4">
-        <v>5</v>
+      <c r="F5" s="10">
+        <v>1.2</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>10</v>
       </c>
       <c r="J5" s="8"/>
-      <c r="K5" s="4">
-        <v>2.5</v>
+      <c r="K5" s="10">
+        <v>1</v>
       </c>
       <c r="L5" s="1"/>
       <c r="N5" s="8" t="s">
         <v>9</v>
       </c>
       <c r="O5" s="8"/>
-      <c r="P5" s="4">
-        <v>2.5</v>
+      <c r="P5" s="10">
+        <v>1</v>
       </c>
       <c r="Q5" s="1"/>
-    </row>
-    <row r="6" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="T5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
         <v>2</v>
       </c>
@@ -526,40 +557,42 @@
       </c>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D7" s="3">
+    <row r="7" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D7" s="2">
         <v>0.2</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>0.3</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>0.5</v>
       </c>
       <c r="G7" s="2">
         <f>SUM(D7:F7)</f>
         <v>1</v>
       </c>
-      <c r="I7" s="3">
+      <c r="H7" s="9"/>
+      <c r="I7" s="2">
         <v>0.3</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="2">
         <v>0.2</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="2">
         <v>0.5</v>
       </c>
       <c r="L7" s="2">
         <f>SUM(I7:K7)</f>
         <v>1</v>
       </c>
-      <c r="N7" s="3">
+      <c r="M7" s="9"/>
+      <c r="N7" s="2">
         <v>0.4</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="2">
         <v>0.3</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7" s="2">
         <v>0.3</v>
       </c>
       <c r="Q7" s="2">
@@ -567,40 +600,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D8" s="3">
+    <row r="8" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D8" s="2">
         <v>0.4</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>0.4</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>0.2</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" ref="G8:G14" si="0">SUM(D8:F8)</f>
         <v>1</v>
       </c>
-      <c r="I8" s="3">
+      <c r="H8" s="9"/>
+      <c r="I8" s="2">
         <v>0.1</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="2">
         <v>0.4</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="2">
         <v>0.5</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" ref="L8:L14" si="1">SUM(I8:K8)</f>
         <v>1</v>
       </c>
-      <c r="N8" s="3">
+      <c r="M8" s="9"/>
+      <c r="N8" s="2">
         <v>0.4</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="2">
         <v>0.4</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="2">
         <v>0.2</v>
       </c>
       <c r="Q8" s="2">
@@ -608,40 +643,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
+    <row r="9" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
         <v>0</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="H9" s="9"/>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
         <v>0.4</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="2">
         <v>0.6</v>
       </c>
       <c r="L9" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N9" s="3">
+      <c r="M9" s="9"/>
+      <c r="N9" s="2">
         <v>0.1</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="2">
         <v>0.1</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="2">
         <v>0.8</v>
       </c>
       <c r="Q9" s="2">
@@ -649,40 +686,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D10" s="3">
+    <row r="10" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D10" s="2">
         <v>0.9</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>0.1</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>0</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I10" s="3">
-        <v>1</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="H10" s="9"/>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
         <v>0</v>
       </c>
       <c r="L10" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="M10" s="9"/>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
         <v>1</v>
       </c>
       <c r="Q10" s="2">
@@ -690,40 +729,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D11" s="3">
+    <row r="11" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D11" s="2">
         <v>0.25</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>0.1</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>0.65</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I11" s="3">
+      <c r="H11" s="9"/>
+      <c r="I11" s="2">
         <v>0.3</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="2">
         <v>0.4</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="2">
         <v>0.3</v>
       </c>
       <c r="L11" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N11" s="3">
+      <c r="M11" s="9"/>
+      <c r="N11" s="2">
         <v>0.25</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11" s="2">
         <v>0.1</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P11" s="2">
         <v>0.65</v>
       </c>
       <c r="Q11" s="2">
@@ -731,40 +772,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D12" s="3">
+    <row r="12" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D12" s="2">
         <v>0.11</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>0.67</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>0.22</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I12" s="3">
+      <c r="H12" s="9"/>
+      <c r="I12" s="2">
         <v>0.5</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="2">
         <v>0.45</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="2">
         <v>0.05</v>
       </c>
       <c r="L12" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N12" s="3">
+      <c r="M12" s="9"/>
+      <c r="N12" s="2">
         <v>0.11</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="2">
         <v>0.67</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="2">
         <v>0.22</v>
       </c>
       <c r="Q12" s="2">
@@ -772,83 +815,119 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D13" s="3">
+    <row r="13" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D13" s="2">
         <v>0.05</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>0.74</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>0.21</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I13" s="3">
-        <v>1</v>
-      </c>
-      <c r="J13" s="3">
-        <v>0</v>
-      </c>
-      <c r="K13" s="3">
+      <c r="H13" s="9"/>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
         <v>0</v>
       </c>
       <c r="L13" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
     </row>
-    <row r="14" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D14" s="3">
+    <row r="14" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D14" s="2">
         <v>0.4</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>0.35</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>0.25</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I14" s="3">
+      <c r="H14" s="9"/>
+      <c r="I14" s="2">
         <v>0.1</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="2">
         <v>0.1</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="2">
         <v>0.8</v>
       </c>
       <c r="L14" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
     </row>
-    <row r="17" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+    </row>
+    <row r="16" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+    </row>
+    <row r="17" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="6">
         <f>AVERAGE(D7:D14)</f>
         <v>0.28875000000000001</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="6">
         <f>AVERAGE(E7:E14)</f>
         <v>0.45750000000000007</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="6">
         <f>AVERAGE(F7:F14)</f>
         <v>0.25375000000000003</v>
       </c>
@@ -856,15 +935,16 @@
         <f>SUM(D17:F17)</f>
         <v>1</v>
       </c>
-      <c r="I17" s="2">
+      <c r="H17" s="2"/>
+      <c r="I17" s="6">
         <f>AVERAGE(I7:I14)</f>
         <v>0.41250000000000003</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="6">
         <f t="shared" ref="J17:K17" si="3">AVERAGE(J7:J14)</f>
         <v>0.24374999999999999</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="6">
         <f t="shared" si="3"/>
         <v>0.34375</v>
       </c>
@@ -872,15 +952,16 @@
         <f>SUM(I17:K17)</f>
         <v>1</v>
       </c>
-      <c r="N17" s="2">
+      <c r="M17" s="2"/>
+      <c r="N17" s="6">
         <f>AVERAGE(N7:N14)</f>
         <v>0.21</v>
       </c>
-      <c r="O17" s="2">
+      <c r="O17" s="6">
         <f>AVERAGE(O7:O14)</f>
         <v>0.26166666666666666</v>
       </c>
-      <c r="P17" s="2">
+      <c r="P17" s="6">
         <f>AVERAGE(P7:P14)</f>
         <v>0.52833333333333332</v>
       </c>
@@ -889,57 +970,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.25">
       <c r="G18" s="2"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.25">
       <c r="G19" s="2"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="23" spans="3:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D23" s="5" t="s">
+    <row r="23" spans="3:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="D23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I23" s="9"/>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" s="2">
         <f>F17*F5</f>
-        <v>1.2687500000000003</v>
+        <v>0.30450000000000005</v>
       </c>
       <c r="E24" s="7">
-        <f>SUM(D24:D26)/10</f>
-        <v>0.34489583333333335</v>
-      </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.3">
+        <f>SUM(D24:D26)/(F5+K5+P5)</f>
+        <v>0.36768229166666666</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="2">
         <f>K17*K5</f>
-        <v>0.859375</v>
+        <v>0.34375</v>
       </c>
       <c r="E25" s="7"/>
     </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="2">
         <f>P17*P5</f>
-        <v>1.3208333333333333</v>
+        <v>0.52833333333333332</v>
       </c>
       <c r="E26" s="7"/>
     </row>
